--- a/posesiones/1477507.xlsx
+++ b/posesiones/1477507.xlsx
@@ -1715,10 +1715,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1759,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1859,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1909,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>23</v>
@@ -1962,7 +1962,7 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R8">
         <v>17</v>
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2065,7 +2065,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R10">
         <v>11</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2168,7 +2168,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R12">
         <v>7</v>
@@ -2221,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2271,7 +2271,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R14">
         <v>9</v>
@@ -2324,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R15">
         <v>17</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2424,7 +2424,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R17">
         <v>24</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2527,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R19">
         <v>17</v>
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2630,7 +2630,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R21">
         <v>15</v>
@@ -2680,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2780,7 +2780,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R24">
         <v>37</v>
@@ -2830,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2880,7 +2880,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R26">
         <v>6</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -2980,7 +2980,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R28">
         <v>17</v>
@@ -3030,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3080,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3130,7 +3130,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R31">
         <v>19</v>
@@ -3180,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3327,7 +3327,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R35">
         <v>10</v>
@@ -3380,7 +3380,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R36">
         <v>11</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3480,7 +3480,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R38">
         <v>15</v>
@@ -3533,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3583,7 +3583,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R40">
         <v>7</v>
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3683,7 +3683,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R42">
         <v>21</v>
@@ -3736,7 +3736,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R43">
         <v>26</v>
@@ -3789,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3889,7 +3889,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R46">
         <v>6</v>
@@ -3939,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -3989,7 +3989,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R48">
         <v>21</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4092,7 +4092,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R50">
         <v>9</v>
@@ -4142,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4239,7 +4239,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R53">
         <v>6</v>
@@ -4292,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4342,7 +4342,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R55">
         <v>14</v>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4445,7 +4445,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R57">
         <v>10</v>
@@ -4498,7 +4498,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4548,7 +4548,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R59">
         <v>12</v>
@@ -4598,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4698,7 +4698,7 @@
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R62">
         <v>22</v>
@@ -4751,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4801,7 +4801,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R64">
         <v>10</v>
@@ -4854,7 +4854,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R65">
         <v>18</v>
@@ -4907,7 +4907,7 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R66">
         <v>22</v>
@@ -4957,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5007,7 +5007,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R68">
         <v>19</v>
@@ -5057,7 +5057,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5107,7 +5107,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R70">
         <v>4</v>
@@ -5157,7 +5157,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5207,7 +5207,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R72">
         <v>24</v>
@@ -5257,7 +5257,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5307,7 +5307,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R74">
         <v>5</v>
@@ -5357,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5407,7 +5407,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R76">
         <v>27</v>
@@ -5460,7 +5460,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R77">
         <v>23</v>
@@ -5510,7 +5510,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5557,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5604,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5651,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5698,7 +5698,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5745,7 +5745,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5792,7 +5792,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5839,7 +5839,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5889,7 +5889,7 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R86">
         <v>19</v>
@@ -5939,7 +5939,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6036,7 +6036,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6086,7 +6086,7 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R90">
         <v>16</v>
@@ -6130,10 +6130,10 @@
         <v>1</v>
       </c>
       <c r="P91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q91">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6180,7 +6180,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6227,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6268,10 +6268,10 @@
         <v>1</v>
       </c>
       <c r="P94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q94">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6321,7 +6321,7 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R95">
         <v>20</v>
@@ -6371,7 +6371,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6421,7 +6421,7 @@
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R97">
         <v>12</v>
@@ -6471,7 +6471,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6521,7 +6521,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R99">
         <v>21</v>
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6621,7 +6621,7 @@
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R101">
         <v>19</v>
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6721,7 +6721,7 @@
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R103">
         <v>21</v>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6821,7 +6821,7 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R105">
         <v>22</v>
@@ -6871,7 +6871,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -6918,7 +6918,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -6968,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7015,7 +7015,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7062,7 +7062,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7112,7 +7112,7 @@
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R111">
         <v>17</v>
@@ -7162,7 +7162,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7209,7 +7209,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7259,7 +7259,7 @@
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R114">
         <v>0</v>
@@ -7312,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7359,7 +7359,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7409,7 +7409,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7503,7 +7503,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7553,7 +7553,7 @@
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R120">
         <v>28</v>
@@ -7603,7 +7603,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7653,7 +7653,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7700,7 +7700,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7747,7 +7747,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7794,7 +7794,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7841,7 +7841,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7888,7 +7888,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -7938,7 +7938,7 @@
         <v>1</v>
       </c>
       <c r="Q128">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R128">
         <v>20</v>
@@ -7991,7 +7991,7 @@
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R129">
         <v>15</v>
@@ -8044,7 +8044,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8094,7 +8094,7 @@
         <v>1</v>
       </c>
       <c r="Q131">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R131">
         <v>10</v>
@@ -8144,7 +8144,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8194,7 +8194,7 @@
         <v>1</v>
       </c>
       <c r="Q133">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R133">
         <v>10</v>
@@ -8244,7 +8244,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8294,7 +8294,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R135">
         <v>4</v>
@@ -8341,7 +8341,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8391,7 +8391,7 @@
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R137">
         <v>21</v>
@@ -8444,7 +8444,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R138">
         <v>20</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8544,7 +8544,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R140">
         <v>31</v>
@@ -8594,7 +8594,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8644,7 +8644,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R142">
         <v>13</v>
@@ -8697,7 +8697,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8747,7 +8747,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R144">
         <v>11</v>
@@ -8797,7 +8797,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8847,7 +8847,7 @@
         <v>1</v>
       </c>
       <c r="Q146">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R146">
         <v>12</v>
@@ -8897,7 +8897,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -8944,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -8991,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9038,7 +9038,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9085,7 +9085,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9132,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9182,7 +9182,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R153">
         <v>24</v>
@@ -9232,7 +9232,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9279,7 +9279,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9326,7 +9326,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9373,7 +9373,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9423,7 +9423,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9473,7 +9473,7 @@
         <v>1</v>
       </c>
       <c r="Q159">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R159">
         <v>40</v>
@@ -9523,7 +9523,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9570,7 +9570,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9617,7 +9617,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9664,7 +9664,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9714,7 +9714,7 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R164">
         <v>29</v>
@@ -9767,7 +9767,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9817,7 +9817,7 @@
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R166">
         <v>12</v>
@@ -9870,7 +9870,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R167">
         <v>15</v>
@@ -9920,7 +9920,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -9970,7 +9970,7 @@
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R169">
         <v>27</v>
@@ -10020,7 +10020,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10067,7 +10067,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10164,7 +10164,7 @@
         <v>1</v>
       </c>
       <c r="Q173">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R173">
         <v>19</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10261,7 +10261,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10308,7 +10308,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10405,7 +10405,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10455,7 +10455,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10502,7 +10502,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10552,7 +10552,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10602,7 +10602,7 @@
         <v>1</v>
       </c>
       <c r="Q182">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R182">
         <v>24</v>
@@ -10652,7 +10652,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10699,7 +10699,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10749,7 +10749,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10796,7 +10796,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -10890,7 +10890,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -10940,7 +10940,7 @@
         <v>1</v>
       </c>
       <c r="Q189">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R189">
         <v>24</v>
@@ -10993,7 +10993,7 @@
         <v>1</v>
       </c>
       <c r="Q190">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R190">
         <v>26</v>
@@ -11046,7 +11046,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11096,7 +11096,7 @@
         <v>1</v>
       </c>
       <c r="Q192">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R192">
         <v>24</v>
@@ -11149,7 +11149,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11196,7 +11196,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11243,7 +11243,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11290,7 +11290,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11337,7 +11337,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11384,7 +11384,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11431,7 +11431,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11475,7 +11475,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11522,7 +11522,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11569,7 +11569,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11616,7 +11616,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11663,7 +11663,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11710,7 +11710,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11757,7 +11757,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11807,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11857,7 +11857,7 @@
         <v>1</v>
       </c>
       <c r="Q208">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R208">
         <v>6</v>
@@ -11910,7 +11910,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -11960,7 +11960,7 @@
         <v>1</v>
       </c>
       <c r="Q210">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R210">
         <v>1</v>
@@ -12004,10 +12004,10 @@
         <v>1</v>
       </c>
       <c r="P211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q211">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12054,7 +12054,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12101,7 +12101,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12148,7 +12148,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12195,7 +12195,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12242,7 +12242,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12289,7 +12289,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12336,7 +12336,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12383,7 +12383,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12424,10 +12424,10 @@
         <v>1</v>
       </c>
       <c r="P220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q220">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12477,7 +12477,7 @@
         <v>1</v>
       </c>
       <c r="Q221">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="R221">
         <v>19</v>
@@ -12527,7 +12527,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12574,7 +12574,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12624,7 +12624,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="Q225">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="R225">
         <v>34</v>
@@ -12727,7 +12727,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12777,7 +12777,7 @@
         <v>1</v>
       </c>
       <c r="Q227">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="R227">
         <v>15</v>
@@ -12830,7 +12830,7 @@
         <v>1</v>
       </c>
       <c r="Q228">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R228">
         <v>14</v>
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -12930,7 +12930,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -12977,7 +12977,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13024,7 +13024,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13118,7 +13118,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13171,7 +13171,7 @@
         <v>1</v>
       </c>
       <c r="Q235">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R235">
         <v>31</v>
@@ -13221,7 +13221,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13268,7 +13268,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13318,7 +13318,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13368,7 +13368,7 @@
         <v>1</v>
       </c>
       <c r="Q239">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R239">
         <v>27</v>
@@ -13421,7 +13421,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13471,7 +13471,7 @@
         <v>1</v>
       </c>
       <c r="Q241">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R241">
         <v>9</v>
@@ -13521,7 +13521,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13571,7 +13571,7 @@
         <v>1</v>
       </c>
       <c r="Q243">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R243">
         <v>8</v>
@@ -13624,7 +13624,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13671,7 +13671,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13718,7 +13718,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13765,7 +13765,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13815,7 +13815,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R248">
         <v>15</v>
@@ -13868,7 +13868,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -13915,7 +13915,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -13962,7 +13962,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14012,7 +14012,7 @@
         <v>1</v>
       </c>
       <c r="Q252">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R252">
         <v>20</v>
@@ -14065,7 +14065,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14115,7 +14115,7 @@
         <v>1</v>
       </c>
       <c r="Q254">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R254">
         <v>11</v>
@@ -14162,7 +14162,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14209,7 +14209,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14256,7 +14256,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14303,7 +14303,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14350,7 +14350,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14397,7 +14397,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14444,7 +14444,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14494,7 +14494,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14544,7 +14544,7 @@
         <v>1</v>
       </c>
       <c r="Q263">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R263">
         <v>19</v>
@@ -14594,7 +14594,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14644,7 +14644,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R265">
         <v>21</v>
@@ -14697,7 +14697,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14747,7 +14747,7 @@
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R267">
         <v>7</v>
@@ -14797,7 +14797,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14847,7 +14847,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R269">
         <v>21</v>
@@ -14897,7 +14897,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -14944,7 +14944,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -14991,7 +14991,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15038,7 +15038,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15085,7 +15085,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15135,7 +15135,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15185,7 +15185,7 @@
         <v>1</v>
       </c>
       <c r="Q276">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R276">
         <v>27</v>
@@ -15232,7 +15232,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15279,7 +15279,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15326,7 +15326,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15373,7 +15373,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15420,7 +15420,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15467,7 +15467,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15517,7 +15517,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R283">
         <v>33</v>
@@ -15567,7 +15567,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15614,7 +15614,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15661,7 +15661,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15708,7 +15708,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15758,7 +15758,7 @@
         <v>1</v>
       </c>
       <c r="Q288">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R288">
         <v>29</v>
@@ -15811,7 +15811,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -15861,7 +15861,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R290">
         <v>20</v>
@@ -15914,7 +15914,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -15964,7 +15964,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R292">
         <v>26</v>
@@ -16017,7 +16017,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16067,7 +16067,7 @@
         <v>1</v>
       </c>
       <c r="Q294">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R294">
         <v>9</v>
@@ -16120,7 +16120,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16170,7 +16170,7 @@
         <v>1</v>
       </c>
       <c r="Q296">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R296">
         <v>7</v>
@@ -16220,7 +16220,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16270,7 +16270,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R298">
         <v>31</v>
@@ -16320,7 +16320,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16367,7 +16367,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16414,7 +16414,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16461,7 +16461,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16511,7 +16511,7 @@
         <v>1</v>
       </c>
       <c r="Q303">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R303">
         <v>34</v>
@@ -16564,7 +16564,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16614,7 +16614,7 @@
         <v>1</v>
       </c>
       <c r="Q305">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R305">
         <v>13</v>
@@ -16667,7 +16667,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16717,7 +16717,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R307">
         <v>10</v>
@@ -16767,7 +16767,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16814,7 +16814,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16861,7 +16861,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -16911,7 +16911,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R311">
         <v>20</v>
@@ -16964,7 +16964,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17014,7 +17014,7 @@
         <v>1</v>
       </c>
       <c r="Q313">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R313">
         <v>16</v>
@@ -17064,7 +17064,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17114,7 +17114,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R315">
         <v>17</v>
@@ -17164,7 +17164,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17211,7 +17211,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17258,7 +17258,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17308,7 +17308,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17355,7 +17355,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17402,7 +17402,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17449,7 +17449,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17496,7 +17496,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17543,7 +17543,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17593,7 +17593,7 @@
         <v>1</v>
       </c>
       <c r="Q325">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R325">
         <v>11</v>
@@ -17643,7 +17643,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17690,7 +17690,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17737,7 +17737,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17784,7 +17784,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17834,7 +17834,7 @@
         <v>1</v>
       </c>
       <c r="Q330">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R330">
         <v>17</v>
@@ -17884,7 +17884,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -17934,7 +17934,7 @@
         <v>1</v>
       </c>
       <c r="Q332">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R332">
         <v>5</v>
@@ -17987,7 +17987,7 @@
         <v>1</v>
       </c>
       <c r="Q333">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R333">
         <v>0</v>
@@ -18031,10 +18031,10 @@
         <v>1</v>
       </c>
       <c r="P334" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q334">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18081,7 +18081,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18128,7 +18128,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18169,10 +18169,10 @@
         <v>1</v>
       </c>
       <c r="P337" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q337">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18219,7 +18219,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18269,7 +18269,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18319,7 +18319,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="R340">
         <v>23</v>
@@ -18372,7 +18372,7 @@
         <v>1</v>
       </c>
       <c r="Q341">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="R341">
         <v>22</v>
@@ -18425,7 +18425,7 @@
         <v>1</v>
       </c>
       <c r="Q342">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="R342">
         <v>14</v>
@@ -18475,7 +18475,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18525,7 +18525,7 @@
         <v>1</v>
       </c>
       <c r="Q344">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="R344">
         <v>15</v>
@@ -18578,7 +18578,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18628,7 +18628,7 @@
         <v>1</v>
       </c>
       <c r="Q346">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="R346">
         <v>19</v>
@@ -18681,7 +18681,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18731,7 +18731,7 @@
         <v>1</v>
       </c>
       <c r="Q348">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="R348">
         <v>6</v>
@@ -18781,7 +18781,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18831,7 +18831,7 @@
         <v>1</v>
       </c>
       <c r="Q350">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="R350">
         <v>11</v>
@@ -18884,7 +18884,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="R351">
         <v>19</v>
@@ -18937,7 +18937,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -18984,7 +18984,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19031,7 +19031,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19078,7 +19078,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19128,7 +19128,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19178,7 +19178,7 @@
         <v>1</v>
       </c>
       <c r="Q357">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="R357">
         <v>29</v>
@@ -19228,7 +19228,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19275,7 +19275,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19322,7 +19322,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19372,7 +19372,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R361">
         <v>33</v>
@@ -19422,7 +19422,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19472,7 +19472,7 @@
         <v>1</v>
       </c>
       <c r="Q363">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R363">
         <v>21</v>
@@ -19522,7 +19522,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19569,7 +19569,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19622,7 +19622,7 @@
         <v>1</v>
       </c>
       <c r="Q366">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R366">
         <v>15</v>
@@ -19672,7 +19672,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19722,7 +19722,7 @@
         <v>1</v>
       </c>
       <c r="Q368">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R368">
         <v>17</v>
@@ -19775,7 +19775,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19825,7 +19825,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R370">
         <v>13</v>
@@ -19878,7 +19878,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -19928,7 +19928,7 @@
         <v>1</v>
       </c>
       <c r="Q372">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R372">
         <v>15</v>
@@ -19981,7 +19981,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R373">
         <v>16</v>
@@ -20031,7 +20031,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20081,7 +20081,7 @@
         <v>1</v>
       </c>
       <c r="Q375">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R375">
         <v>25</v>
@@ -20131,7 +20131,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20178,7 +20178,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20225,7 +20225,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20272,7 +20272,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20319,7 +20319,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20369,7 +20369,7 @@
         <v>1</v>
       </c>
       <c r="Q381">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R381">
         <v>41</v>
@@ -20422,7 +20422,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R382">
         <v>17</v>
@@ -20469,7 +20469,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20516,7 +20516,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20563,7 +20563,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20613,7 +20613,7 @@
         <v>1</v>
       </c>
       <c r="Q386">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R386">
         <v>16</v>
@@ -20663,7 +20663,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20710,7 +20710,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20757,7 +20757,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20804,7 +20804,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20851,7 +20851,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -20901,7 +20901,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -20951,7 +20951,7 @@
         <v>1</v>
       </c>
       <c r="Q393">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R393">
         <v>39</v>
@@ -21004,7 +21004,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R394">
         <v>14</v>
@@ -21057,7 +21057,7 @@
         <v>1</v>
       </c>
       <c r="Q395">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R395">
         <v>18</v>
@@ -21110,7 +21110,7 @@
         <v>1</v>
       </c>
       <c r="Q396">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R396">
         <v>20</v>
@@ -21160,7 +21160,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21210,7 +21210,7 @@
         <v>1</v>
       </c>
       <c r="Q398">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R398">
         <v>12</v>
@@ -21260,7 +21260,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21307,7 +21307,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21357,7 +21357,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R401">
         <v>0</v>
@@ -21407,7 +21407,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21454,7 +21454,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21504,7 +21504,7 @@
         <v>1</v>
       </c>
       <c r="Q404">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R404">
         <v>21</v>
@@ -21554,7 +21554,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21604,7 +21604,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21654,7 +21654,7 @@
         <v>1</v>
       </c>
       <c r="Q407">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R407">
         <v>6</v>
@@ -21701,7 +21701,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21748,7 +21748,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21795,7 +21795,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21845,7 +21845,7 @@
         <v>1</v>
       </c>
       <c r="Q411">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R411">
         <v>13</v>
@@ -21895,7 +21895,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -21942,7 +21942,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -21992,7 +21992,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22042,7 +22042,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R415">
         <v>28</v>
@@ -22092,7 +22092,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22142,7 +22142,7 @@
         <v>1</v>
       </c>
       <c r="Q417">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R417">
         <v>11</v>
@@ -22192,7 +22192,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22236,7 +22236,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22283,7 +22283,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22330,7 +22330,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22380,7 +22380,7 @@
         <v>1</v>
       </c>
       <c r="Q422">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R422">
         <v>16</v>
@@ -22430,7 +22430,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22477,7 +22477,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22524,7 +22524,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22571,7 +22571,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22621,7 +22621,7 @@
         <v>1</v>
       </c>
       <c r="Q427">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R427">
         <v>11</v>
@@ -22674,7 +22674,7 @@
         <v>1</v>
       </c>
       <c r="Q428">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R428">
         <v>0</v>
@@ -22718,10 +22718,10 @@
         <v>1</v>
       </c>
       <c r="P429" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q429">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
